--- a/問題と苦しみ.xlsx
+++ b/問題と苦しみ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurri\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurri\OneDrive\デスクトップ\問題と苦しみ関連\mondai-kurushimi-quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EBFD66-315A-43EF-BA76-46B639BC6A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730794A4-EC19-413F-A9A7-2DBDF8F1FF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{67E6CFD3-F8A1-4EAA-9B99-11B150F0156D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67E6CFD3-F8A1-4EAA-9B99-11B150F0156D}"/>
   </bookViews>
   <sheets>
     <sheet name="若干難かしいVer" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="383">
   <si>
     <t>番号</t>
   </si>
@@ -137,18 +137,6 @@
   </si>
   <si>
     <t>「才能が枯れた」という諦めにより、自分の実力は底をつき二度と浮上できないと確信する。</t>
-  </si>
-  <si>
-    <t>誰かに「疲れてる？」と聞かれた。</t>
-  </si>
-  <si>
-    <t>外見への言及。</t>
-  </si>
-  <si>
-    <t>容姿への嫌悪</t>
-  </si>
-  <si>
-    <t>「容姿への嫌悪」という落胆により、自分は見るに堪えないほど老け込み魅力が消えたと悲しむ。</t>
   </si>
   <si>
     <t>相談相手が自分の話を遮った。</t>
@@ -1610,8 +1598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8EE487-02BD-46A4-928E-87193E2E31A6}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1962,21 +1951,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1989,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B432A3ED-B7A3-4E9C-A431-0C45E0CC7D93}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2009,10 +1986,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2020,69 +1997,69 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2090,391 +2067,391 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2482,923 +2459,923 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3406,13 +3383,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/問題と苦しみ.xlsx
+++ b/問題と苦しみ.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurri\OneDrive\デスクトップ\問題と苦しみ関連\mondai-kurushimi-quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurri\OneDrive\デスクトップ\問題と苦しみ関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730794A4-EC19-413F-A9A7-2DBDF8F1FF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3291313-0050-4490-A680-03B3EA3E7D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67E6CFD3-F8A1-4EAA-9B99-11B150F0156D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="若干難かしいVer" sheetId="1" r:id="rId1"/>
     <sheet name="簡単バージョン" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="427">
   <si>
     <t>番号</t>
   </si>
@@ -82,15 +77,6 @@
     <t>尊敬する人に「普通だね」と言われた。</t>
   </si>
   <si>
-    <t>特定の評価を受けた。</t>
-  </si>
-  <si>
-    <t>特別ではない</t>
-  </si>
-  <si>
-    <t>「特別ではない」という絶望により、自分には個性も才能もなく誰の印象にも残らないと嘆く。</t>
-  </si>
-  <si>
     <t>SNSで自分抜きの集まりを見た。</t>
   </si>
   <si>
@@ -283,6 +269,9 @@
     <t>代わりの容器が必要になる。</t>
   </si>
   <si>
+    <t>自分の不注意さを責める。</t>
+  </si>
+  <si>
     <t>会議で発言を無視された。</t>
   </si>
   <si>
@@ -325,6 +314,9 @@
     <t>患部の手当てが必要になる。</t>
   </si>
   <si>
+    <t>なぜ自分だけこんな目に合うんだと憤る。</t>
+  </si>
+  <si>
     <t>未払いの請求書がある。</t>
   </si>
   <si>
@@ -349,6 +341,9 @@
     <t>目的地への到着が遅れる。</t>
   </si>
   <si>
+    <t>遅刻を過剰に恐れ、周囲に怒りをまき散らす。</t>
+  </si>
+  <si>
     <t>白髪を見つけた。</t>
   </si>
   <si>
@@ -571,6 +566,9 @@
     <t>接客サービスが期待を下回る。</t>
   </si>
   <si>
+    <t>軽んじられたと何度も反芻して怒る。</t>
+  </si>
+  <si>
     <t>レジ待ちが長い。</t>
   </si>
   <si>
@@ -1162,32 +1160,166 @@
     <t>24時間が経過した。</t>
   </si>
   <si>
-    <t>自分の不注意さを責める。</t>
+    <t>何もできなかったと不足感に焦る。</t>
+  </si>
+  <si>
+    <t>仲の良い友人が別のコミュニティに熱中し始めた。</t>
+  </si>
+  <si>
+    <t>関係の優先順位が変化した。</t>
+  </si>
+  <si>
+    <t>置いていかれる</t>
+  </si>
+  <si>
+    <t>「置いていかれる」という不安により、自分は選ばれない人間だと結論づける。</t>
+  </si>
+  <si>
+    <t>努力して準備した企画が「今はタイミングが悪い」と言われた。</t>
+  </si>
+  <si>
+    <t>市場・状況との不一致。</t>
+  </si>
+  <si>
+    <t>否定された</t>
+  </si>
+  <si>
+    <t>「否定された」という短絡により、自分の感性は世の中とズレていると断定する。</t>
+  </si>
+  <si>
+    <t>部下が自分に相談せず上司に直接話を持っていった。</t>
+  </si>
+  <si>
+    <t>報告経路が変化した。</t>
+  </si>
+  <si>
+    <t>信頼されていない</t>
+  </si>
+  <si>
+    <t>「信頼されていない」という推測により、自分はリーダー失格だと自己評価を下げる。</t>
+  </si>
+  <si>
+    <t>SNSの投稿に以前より反応が少ない。</t>
+  </si>
+  <si>
+    <t>閲覧者の関心変動。</t>
+  </si>
+  <si>
+    <t>飽きられた</t>
+  </si>
+  <si>
+    <t>「飽きられた」という思い込みにより、自分にはもう発信する価値がないと結論づける。</t>
+  </si>
+  <si>
+    <t>久しぶりに会った人に「変わったね」と言われた。</t>
+  </si>
+  <si>
+    <t>印象の変化。</t>
+  </si>
+  <si>
+    <t>以前の自分が否定された</t>
+  </si>
+  <si>
+    <t>「以前の自分が否定された」という解釈により、自分は本来の自分を失ってしまったと嘆く。</t>
+  </si>
+  <si>
+    <t>会議で自分の案がスルーされ、後で似た案が別の人の名前で採用された。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>なぜ自分だけこんな目に合うんだと憤る。</t>
-    <rPh sb="11" eb="12">
-      <t>ア</t>
+    <t>提案の認識が共有されなかった。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>存在を奪われた</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「存在を奪われた」という被害意識により、自分は利用されるだけの価値しかないと決めつける。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>雑談の中で自分だけ話題に入れず、話が次々に進んでいった。</t>
+  </si>
+  <si>
+    <t>会話の流れに乗れなかった。</t>
+  </si>
+  <si>
+    <t>上司に送った報告への返信が短く、絵文字もなく淡泊だった。</t>
+  </si>
+  <si>
+    <t>反応が少なく意図が読み取りにくい。</t>
+  </si>
+  <si>
+    <t>冷たく突き放された</t>
+  </si>
+  <si>
+    <t>「冷たく突き放された」という解釈により、自分は嫌われているに違いないと結論づける。</t>
+  </si>
+  <si>
+    <t>真剣に作った成果物に対して、指摘が細部まで大量に返ってきた。</t>
+  </si>
+  <si>
+    <t>修正点が多く品質の期待値が高い。</t>
+  </si>
+  <si>
+    <t>価値を認められていない</t>
+  </si>
+  <si>
+    <t>「価値を認められていない」という短絡により、自分は努力しても評価されない人間だと断定する。</t>
+  </si>
+  <si>
+    <t>予定していた約束が、相手都合で直前にリスケになった。</t>
+  </si>
+  <si>
+    <t>日程の優先順位が下がった。</t>
+  </si>
+  <si>
+    <t>軽く扱われた</t>
+  </si>
+  <si>
+    <t>「軽く扱われた」という怒りにより、自分は大事にされない関係なのだと決めつける。</t>
+  </si>
+  <si>
+    <t>そこにいない感じになった</t>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>遅刻を過剰に恐れ、周囲に怒りをまき散らす。</t>
-    <rPh sb="12" eb="13">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>チ</t>
+    <t>「そこにいない感じになった」という無力感により、自分は場にいても意味がない存在だと決めつける。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>評価を受けた。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>落胆した</t>
+    <rPh sb="0" eb="2">
+      <t>ラクタン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>軽んじられたと何度も反芻して怒る。</t>
+    <t>「特別ではない」という思い込みから、自分は価値がないと拡大解釈する。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>何もできなかったと不足感に焦る。</t>
+    <t>好きな人からの返信が以前より短くなった。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>反応が簡素になった。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>距離を置かれている</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「距離を置かれている」という推測により、自分は魅力を失ったと結論づける。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1195,7 +1327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,6 +1363,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1240,7 +1379,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1263,13 +1402,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,6 +1478,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1595,23 +1813,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8EE487-02BD-46A4-928E-87193E2E31A6}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="34.125" customWidth="1"/>
-    <col min="3" max="3" width="28.375" customWidth="1"/>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
-    <col min="5" max="5" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="43.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1645,7 +1862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1662,7 +1879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1679,281 +1896,463 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2">
-        <v>20</v>
+    </row>
+    <row r="22" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -1963,22 +2362,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B432A3ED-B7A3-4E9C-A431-0C45E0CC7D93}">
-  <dimension ref="A1:D101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="36.875" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="46.25" customWidth="1"/>
-    <col min="5" max="5" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="36.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="46.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1986,139 +2385,139 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2132,7 +2531,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2146,7 +2545,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2160,7 +2559,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2174,7 +2573,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2188,7 +2587,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2202,7 +2601,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2216,7 +2615,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2230,7 +2629,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2244,7 +2643,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2258,7 +2657,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2272,7 +2671,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2286,7 +2685,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2300,7 +2699,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2314,7 +2713,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2328,7 +2727,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2342,7 +2741,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2356,7 +2755,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2370,7 +2769,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2384,7 +2783,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2398,7 +2797,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2412,7 +2811,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2426,7 +2825,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2440,7 +2839,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2454,7 +2853,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2465,932 +2864,938 @@
         <v>180</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>382</v>
-      </c>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/問題と苦しみ.xlsx
+++ b/問題と苦しみ.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurri\OneDrive\デスクトップ\問題と苦しみ関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurri\OneDrive\デスクトップ\問題と苦しみ関連\mondai-kurushimi-quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3291313-0050-4490-A680-03B3EA3E7D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFF27F0-DAA5-4855-AE96-CE0B847868A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="1590" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="若干難かしいVer" sheetId="1" r:id="rId1"/>
-    <sheet name="簡単バージョン" sheetId="2" r:id="rId2"/>
+    <sheet name="NO1" sheetId="2" r:id="rId1"/>
+    <sheet name="NO2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1813,11 +1813,1453 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="36.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="46.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2359,1446 +3801,4 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E102"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="36.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="46.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="2">
-        <v>68</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="2">
-        <v>69</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="2">
-        <v>70</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="2">
-        <v>71</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="2">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="2">
-        <v>73</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="2">
-        <v>74</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="2">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="2">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="2">
-        <v>77</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="2">
-        <v>78</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="2">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="2">
-        <v>80</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="2">
-        <v>81</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="2">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="2">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="2">
-        <v>84</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="2">
-        <v>85</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="2">
-        <v>86</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="2">
-        <v>87</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="2">
-        <v>88</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="2">
-        <v>89</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="2">
-        <v>90</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="2">
-        <v>91</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="2">
-        <v>92</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="2">
-        <v>93</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="2">
-        <v>94</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="2">
-        <v>95</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="2">
-        <v>96</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="2">
-        <v>97</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="2">
-        <v>98</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="2">
-        <v>99</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="2">
-        <v>100</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/問題と苦しみ.xlsx
+++ b/問題と苦しみ.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,182 @@
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>雨が降った。</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>傘がなくて濡れた。</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>最悪だ、嫌だと思った。</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>遅刻しそうになった。</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>電車が遅延した。</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>イライラした、不安になった。</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>仕事でミスをした。</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>報告書に誤りがあった。</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>自分はダメだと思った。</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>友人に連絡が取れない。</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>返信が来ない。</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嫌われたかもと心配した。</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>試験の結果が届いた。</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>合格ラインに届かなかった。</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>落ち込んだ、悲しい。</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>荷物が届かなかった。</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>配達が遅れている。</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>不安でたまらない。</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>会議で反対された。</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>意見が通らなかった。</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>悔しい、認められない。</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>体調が悪い。</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>熱がある。</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>つらい、早く治りたい。</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>同上</t>
         </is>
@@ -511,7 +687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,17 +720,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>雨が降った。</t>
+          <t>一日が終わる。</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>傘がなくて濡れた。</t>
+          <t>24時間が経過した。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>最悪だ、嫌だと思った。</t>
+          <t>時間が足りないと焦った。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -566,20 +742,196 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>プレゼンで少し噛んだ。</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>発言が一部聞き取りにくい。</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恥ずかしい、失敗したと思った。</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>雨が降った。</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>傘がなくて濡れた。</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>最悪だ、嫌だと思った。</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>遅刻しそうになった。</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>電車が遅延した。</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>イライラした、不安になった。</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>仕事でミスをした。</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>報告書に誤りがあった。</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>自分はダメだと思った。</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>友人に連絡が取れない。</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>返信が来ない。</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嫌われたかもと心配した。</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>試験の結果が届いた。</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>合格ラインに届かなかった。</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>落ち込んだ、悲しい。</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>荷物が届かなかった。</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>配達が遅れている。</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>不安でたまらない。</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>会議で反対された。</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>意見が通らなかった。</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>悔しい、認められない。</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>体調が悪い。</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>熱がある。</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>つらい、早く治りたい。</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>同上</t>
         </is>

--- a/問題と苦しみ.xlsx
+++ b/問題と苦しみ.xlsx
@@ -720,7 +720,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>一日が終わる。</t>
+          <t>一日が終わる。【レベル2】</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -742,7 +742,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>プレゼンで少し噛んだ。</t>
+          <t>プレゼンで少し噛んだ。【レベル2】</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -764,7 +764,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>雨が降った。</t>
+          <t>雨が降った。【レベル2】</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>遅刻しそうになった。</t>
+          <t>遅刻しそうになった。【レベル2】</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>仕事でミスをした。</t>
+          <t>仕事でミスをした。【レベル2】</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -830,7 +830,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>友人に連絡が取れない。</t>
+          <t>友人に連絡が取れない。【レベル2】</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -852,7 +852,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>試験の結果が届いた。</t>
+          <t>試験の結果が届いた。【レベル2】</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -874,7 +874,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>荷物が届かなかった。</t>
+          <t>荷物が届かなかった。【レベル2】</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -896,7 +896,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>会議で反対された。</t>
+          <t>会議で反対された。【レベル2】</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -918,7 +918,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>体調が悪い。</t>
+          <t>体調が悪い。【レベル2】</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
